--- a/SE2223_60157_60201_60226_60479_60749/Phase_2/Sprint 3/Sprint Backlog.xlsx
+++ b/SE2223_60157_60201_60226_60479_60749/Phase_2/Sprint 3/Sprint Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="53">
   <si>
     <t>Day 1</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Every Member</t>
+  </si>
+  <si>
+    <t>Create Second Mergedoc</t>
+  </si>
+  <si>
+    <t>Create Final Report</t>
   </si>
   <si>
     <t>Day 2</t>
@@ -513,9 +519,9 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
@@ -527,9 +533,9 @@
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
@@ -541,9 +547,9 @@
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
@@ -555,9 +561,9 @@
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
@@ -569,9 +575,9 @@
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
@@ -584,8 +590,8 @@
         <v>8</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
@@ -598,8 +604,8 @@
         <v>8</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
@@ -612,8 +618,8 @@
         <v>8</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
@@ -626,8 +632,8 @@
         <v>8</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
@@ -640,8 +646,8 @@
         <v>8</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="6" t="s">
         <v>25</v>
       </c>
@@ -654,8 +660,8 @@
         <v>8</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="6" t="s">
         <v>13</v>
       </c>
@@ -668,8 +674,8 @@
         <v>8</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
@@ -682,8 +688,8 @@
         <v>8</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="6" t="s">
         <v>9</v>
       </c>
@@ -696,8 +702,8 @@
         <v>8</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="6" t="s">
         <v>13</v>
       </c>
@@ -710,8 +716,8 @@
         <v>8</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="6" t="s">
         <v>13</v>
       </c>
@@ -724,8 +730,8 @@
         <v>8</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
@@ -738,8 +744,8 @@
         <v>8</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="6" t="s">
         <v>34</v>
       </c>
@@ -752,8 +758,8 @@
         <v>8</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="6" t="s">
         <v>15</v>
       </c>
@@ -766,8 +772,8 @@
         <v>8</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="6" t="s">
         <v>11</v>
       </c>
@@ -780,8 +786,8 @@
         <v>8</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="6" t="s">
         <v>15</v>
       </c>
@@ -794,8 +800,8 @@
         <v>8</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="6" t="s">
         <v>25</v>
       </c>
@@ -808,8 +814,8 @@
         <v>8</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="6" t="s">
         <v>11</v>
       </c>
@@ -822,8 +828,8 @@
         <v>8</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="6" t="s">
         <v>15</v>
       </c>
@@ -836,8 +842,8 @@
         <v>8</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="6" t="s">
         <v>25</v>
       </c>
@@ -850,8 +856,8 @@
         <v>8</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="6" t="s">
         <v>17</v>
       </c>
@@ -864,495 +870,495 @@
         <v>8</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>6</v>
+      <c r="C29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>11</v>
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>6</v>
+      <c r="B56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
       <c r="G58" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
       <c r="G59" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6" t="s">
-        <v>15</v>
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G61" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>8</v>
@@ -1361,12 +1367,12 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>8</v>
@@ -1375,12 +1381,12 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>8</v>
@@ -1389,940 +1395,940 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="5"/>
       <c r="G65" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="5"/>
       <c r="G66" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="5"/>
       <c r="G67" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="5"/>
       <c r="G68" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="5"/>
       <c r="G69" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="6"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="F71" s="5"/>
       <c r="G71" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="F72" s="5"/>
       <c r="G72" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="5"/>
       <c r="G73" s="6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="F75" s="5"/>
       <c r="G75" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="F76" s="5"/>
       <c r="G76" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="5"/>
       <c r="G77" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5"/>
       <c r="G78" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="5"/>
       <c r="G79" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="F80" s="5"/>
       <c r="G80" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="5"/>
       <c r="G81" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
+      <c r="E82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="5"/>
       <c r="G82" s="6" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>6</v>
+      <c r="B83" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="F84" s="5"/>
       <c r="G84" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="F85" s="5"/>
       <c r="G85" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="5"/>
       <c r="G87" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="6"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
+      <c r="F88" s="5"/>
       <c r="G88" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6" t="s">
-        <v>19</v>
+      <c r="A89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C90" s="6"/>
-      <c r="D90" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G90" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
       <c r="G91" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
       <c r="G92" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
       <c r="G93" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
       <c r="G94" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
       <c r="G95" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C96" s="5"/>
       <c r="D96" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="6"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C97" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C97" s="5"/>
       <c r="D97" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="6"/>
+      <c r="E97" s="5"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C98" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C98" s="5"/>
       <c r="D98" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="6"/>
+      <c r="E98" s="5"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C99" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C99" s="5"/>
       <c r="D99" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="6"/>
+      <c r="E99" s="5"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C100" s="5"/>
       <c r="D100" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="6"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
+      <c r="F101" s="5"/>
       <c r="G101" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
       <c r="G103" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="6"/>
+      <c r="E104" s="5"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D105" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="6"/>
       <c r="G105" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
       <c r="G107" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
       <c r="G108" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
       <c r="G109" s="6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>6</v>
+      <c r="B110" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="5" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
+      <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
       <c r="G112" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="5" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
       <c r="G113" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
       <c r="G114" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
       <c r="G115" s="6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D116" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
       <c r="G116" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
       <c r="G117" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
-      <c r="B118" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>9</v>
+      <c r="A118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
       <c r="F119" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="6"/>
       <c r="G120" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
+      <c r="D121" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E121" s="6"/>
-      <c r="F121" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="F121" s="6"/>
       <c r="G121" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D122" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="6"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G123" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G124" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G125" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G126" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G127" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G128" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G129" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -2331,12 +2337,12 @@
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -2345,26 +2351,26 @@
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="6"/>
       <c r="G132" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -2373,12 +2379,12 @@
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -2387,466 +2393,457 @@
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C135" s="6"/>
-      <c r="D135" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="5"/>
       <c r="G135" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C136" s="6"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
+      <c r="E136" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="5"/>
       <c r="G136" s="6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>6</v>
+      <c r="B137" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E138" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="5"/>
       <c r="G138" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E139" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="5"/>
       <c r="G139" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140">
       <c r="B140" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="E140" s="5"/>
       <c r="F140" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E141" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="5"/>
       <c r="G141" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E142" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="5"/>
       <c r="G142" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D143" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
       <c r="G143" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144">
       <c r="B144" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C144" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
       <c r="G144" s="6" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145">
       <c r="B145" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E145" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="5"/>
       <c r="G145" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D146" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
       <c r="G146" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147">
-      <c r="B147" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>25</v>
+      <c r="A147" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="148">
       <c r="B148" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
       <c r="F148" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
       <c r="B149" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
       <c r="F149" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
       <c r="F150" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
       <c r="F151" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="B152" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
       <c r="F152" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153">
       <c r="B153" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C153" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C153" s="5"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
+      <c r="E153" s="5"/>
       <c r="F153" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C154" s="5"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
+      <c r="E154" s="5"/>
       <c r="F154" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155">
       <c r="B155" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
+      <c r="E155" s="5"/>
       <c r="F155" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
       <c r="B156" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
+      <c r="E156" s="5"/>
       <c r="F156" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
       <c r="B157" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C157" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C157" s="5"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
+      <c r="E157" s="5"/>
       <c r="F157" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158">
       <c r="B158" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C158" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C158" s="5"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+      <c r="E158" s="5"/>
       <c r="F158" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C159" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C159" s="5"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
       <c r="B160" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C160" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C160" s="5"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="B161" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C161" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C161" s="5"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C162" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C162" s="5"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G162" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
       <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
+      <c r="F163" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G163" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>6</v>
+      <c r="B164" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="B165" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C165" s="5"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="C166" s="5"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
@@ -2858,35 +2855,35 @@
     </row>
     <row r="167">
       <c r="B167" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C167" s="5"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
       <c r="B168" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C168" s="5"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169">
       <c r="B169" s="5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -2895,12 +2892,12 @@
         <v>8</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -2909,12 +2906,12 @@
         <v>8</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -2923,86 +2920,95 @@
         <v>8</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172">
       <c r="B172" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E172" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" s="5"/>
       <c r="G172" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173">
       <c r="B173" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D173" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
       <c r="G173" s="6" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
+      <c r="E174" s="5"/>
       <c r="F174" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="B175" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E175" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="5"/>
       <c r="G175" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176">
-      <c r="B176" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>28</v>
+      <c r="A176" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="177">
       <c r="B177" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
       <c r="F177" s="6" t="s">
         <v>8</v>
       </c>
@@ -3012,25 +3018,25 @@
     </row>
     <row r="178">
       <c r="B178" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
       <c r="F178" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179">
       <c r="B179" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
       <c r="F179" s="6" t="s">
         <v>8</v>
       </c>
@@ -3040,167 +3046,363 @@
     </row>
     <row r="180">
       <c r="B180" s="5" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
       <c r="F180" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
       <c r="B181" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182">
       <c r="B182" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C182" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C182" s="5"/>
       <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
+      <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183">
       <c r="B183" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C183" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C183" s="5"/>
       <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
+      <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184">
       <c r="B184" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
+      <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="B185" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
+      <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C186" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C186" s="5"/>
       <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
+      <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187">
       <c r="B187" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C187" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C187" s="5"/>
       <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
+      <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
       <c r="B188" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C188" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C188" s="5"/>
       <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
+      <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189">
       <c r="B189" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C189" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C189" s="5"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
+      <c r="E189" s="5"/>
       <c r="F189" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="B190" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G190" s="6" t="s">
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" s="6" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="A29:A55"/>
-    <mergeCell ref="A56:A82"/>
-    <mergeCell ref="A83:A109"/>
-    <mergeCell ref="A110:A136"/>
-    <mergeCell ref="A137:A163"/>
-    <mergeCell ref="A164:A190"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="A31:A59"/>
+    <mergeCell ref="A60:A88"/>
+    <mergeCell ref="A89:A117"/>
+    <mergeCell ref="A118:A146"/>
+    <mergeCell ref="A147:A175"/>
+    <mergeCell ref="A176:A204"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
